--- a/data/trans_dic/P19D_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.842268191595691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7757989776735983</v>
+        <v>0.7757989776735984</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9189190289194871</v>
@@ -685,7 +685,7 @@
         <v>0.8736592072067995</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8636060232294325</v>
+        <v>0.8636060232294324</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9048398544992332</v>
@@ -697,7 +697,7 @@
         <v>0.8592357424891882</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8254345443292105</v>
+        <v>0.8254345443292107</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8421968500901134</v>
+        <v>0.840008134433469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7641755011027861</v>
+        <v>0.764505746005642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8154811617357764</v>
+        <v>0.8149694626464483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7282935450888137</v>
+        <v>0.7301276569979032</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8954984406554609</v>
+        <v>0.8965759342006874</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8166246146645082</v>
+        <v>0.8154228453034399</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8500848512946816</v>
+        <v>0.8486685711958797</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8348134288746993</v>
+        <v>0.8362054201300976</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8853724910650623</v>
+        <v>0.886436882955794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8013488944092333</v>
+        <v>0.8006755728925287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8429036420550123</v>
+        <v>0.8400345690530407</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8015532268561836</v>
+        <v>0.8003980035575419</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.908655213062651</v>
+        <v>0.90725824803236</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8213606836201069</v>
+        <v>0.8214108647988444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8682644903208577</v>
+        <v>0.8671844529612838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8158447542033102</v>
+        <v>0.8141522508169263</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9372445617333183</v>
+        <v>0.9371119156392446</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8653603426166346</v>
+        <v>0.8663541107060491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8942421756013103</v>
+        <v>0.894847169108728</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8862730366797081</v>
+        <v>0.8893914070259868</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9197921923851986</v>
+        <v>0.920970299509383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8378507825293349</v>
+        <v>0.8386140517261219</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8768560284604657</v>
+        <v>0.8755187629847078</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8474811287975621</v>
+        <v>0.8489373575980812</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.9210181327661917</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9349567686342811</v>
+        <v>0.9349567686342812</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9253152716258753</v>
@@ -833,7 +833,7 @@
         <v>0.9236971132283134</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9167240174252265</v>
+        <v>0.9167240174252266</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9036097670359949</v>
+        <v>0.9055498181582143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.826711853787705</v>
+        <v>0.8284954286834251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9055957799320209</v>
+        <v>0.9065239476809114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8684860042812957</v>
+        <v>0.8699426576815299</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9084129461852996</v>
+        <v>0.9053985524275244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8688364787953631</v>
+        <v>0.8695136208335578</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9002869700397494</v>
+        <v>0.9011869837672091</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9199887171793599</v>
+        <v>0.9207700918373428</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9108029705421142</v>
+        <v>0.9116686189391048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8569812152714206</v>
+        <v>0.8564884882860465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9094818475808848</v>
+        <v>0.9077104818742905</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9022941035272573</v>
+        <v>0.9039436385524438</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9421433568322666</v>
+        <v>0.9413928232684629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8769697824935151</v>
+        <v>0.8797538427229146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9444491857279351</v>
+        <v>0.94415571628863</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.91557483935019</v>
+        <v>0.9157270791630963</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9430182606152082</v>
+        <v>0.9430957185355672</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9107157352462047</v>
+        <v>0.909548699842909</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9393221909268905</v>
+        <v>0.9400995538815006</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9463385447033674</v>
+        <v>0.9465404412545555</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9373348937869334</v>
+        <v>0.9381979522479476</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8906090992425936</v>
+        <v>0.8905049069544194</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9370192503927547</v>
+        <v>0.9366601932759847</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.928372817726094</v>
+        <v>0.9288534603033648</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.9278089243769028</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9594621317314104</v>
+        <v>0.9594621317314103</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.929145618187379</v>
+        <v>0.9272115430572709</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8879918096413568</v>
+        <v>0.8862864970596165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9050426161952327</v>
+        <v>0.906459908282479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9233197959422191</v>
+        <v>0.9256252580436886</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9202710383918606</v>
+        <v>0.9212980122362731</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8982276804203538</v>
+        <v>0.8984733436356843</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9068067930099383</v>
+        <v>0.9053980609390648</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9657316289289288</v>
+        <v>0.9640717834170487</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9290202057409399</v>
+        <v>0.9304849039398759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8992410390552049</v>
+        <v>0.8985678568298552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.912871129349099</v>
+        <v>0.9130232385878304</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9490051024861882</v>
+        <v>0.9484114666572934</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9590519171506362</v>
+        <v>0.9588312054962277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9299673228808082</v>
+        <v>0.9294963119658354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9446499883337125</v>
+        <v>0.9450836969219975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.959094511128898</v>
+        <v>0.9580727478766472</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9530584242813492</v>
+        <v>0.953326596436189</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9380297560625069</v>
+        <v>0.9367686468965634</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9477083776660556</v>
+        <v>0.9497710782914334</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9815267324466321</v>
+        <v>0.9815733932745691</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.952469698601795</v>
+        <v>0.9534861544425923</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9275042785179425</v>
+        <v>0.9286850944903502</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9413678925537646</v>
+        <v>0.9405911478588025</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9678192932344424</v>
+        <v>0.9667135308585524</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9081963195397011</v>
+        <v>0.9108024351819004</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.895651682630084</v>
+        <v>0.9000122335545938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9264466805775968</v>
+        <v>0.9269697076877924</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9487984653095786</v>
+        <v>0.9473638707831891</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9206648364921706</v>
+        <v>0.9194148697681049</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9195759589857248</v>
+        <v>0.9188483898451936</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9166257282925663</v>
+        <v>0.914660467645668</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9488249960568058</v>
+        <v>0.9478220282326471</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9238735844966046</v>
+        <v>0.9260770872644228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9170828452286187</v>
+        <v>0.9169495101011583</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9297375169276143</v>
+        <v>0.9289700293993841</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9521014673133488</v>
+        <v>0.9534057070201273</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9612656483763551</v>
+        <v>0.9625110427284252</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9505277585799223</v>
+        <v>0.9499131854384464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9718370640889908</v>
+        <v>0.9696917858466682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9776674489937458</v>
+        <v>0.9777594313219071</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9745803691400579</v>
+        <v>0.9715642356943514</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9634683516247309</v>
+        <v>0.9647479419865967</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9633300209849831</v>
+        <v>0.9623922734760879</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9730841288243923</v>
+        <v>0.9732744179594051</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9608914653800561</v>
+        <v>0.9614314488545253</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9523724345173984</v>
+        <v>0.9516861598846833</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9608963706005902</v>
+        <v>0.9619411257452359</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.972457792919428</v>
+        <v>0.9724769527368488</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9057279518701391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9141791332863839</v>
+        <v>0.9141791332863837</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9309342196258961</v>
@@ -1241,7 +1241,7 @@
         <v>0.9084313210170887</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9282209908681728</v>
+        <v>0.9282209908681729</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9147540732715095</v>
+        <v>0.9154045089491966</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.849180863273113</v>
+        <v>0.8497867427998597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8941527843160563</v>
+        <v>0.8941857441484548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9015578290931251</v>
+        <v>0.9031779716819968</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9204488893453967</v>
+        <v>0.9206652774477522</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8795201625010357</v>
+        <v>0.8784984380887402</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8987297405703828</v>
+        <v>0.8990542001173927</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.933947585682485</v>
+        <v>0.9344462519066733</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.921893211749206</v>
+        <v>0.9211916476807713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8688861196879314</v>
+        <v>0.868576422450542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9001698701717505</v>
+        <v>0.8993856644716383</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9212618584593705</v>
+        <v>0.9217636926414886</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9360968950223598</v>
+        <v>0.9369466422264114</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.875480947338918</v>
+        <v>0.8754480852901808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9177593284501491</v>
+        <v>0.9161271339630369</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9241755055715655</v>
+        <v>0.924811648740761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9403389421258735</v>
+        <v>0.9409195099866161</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9031963021201352</v>
+        <v>0.9018369199468426</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9213859174163811</v>
+        <v>0.9207290853004181</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9477507306933816</v>
+        <v>0.9481402067579354</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9362193917263568</v>
+        <v>0.9355881390171412</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8864577950966022</v>
+        <v>0.8863039360495485</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9160184963576947</v>
+        <v>0.9156988345770551</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9347375324657546</v>
+        <v>0.9344631865554496</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>334144</v>
+        <v>333276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>630041</v>
+        <v>630313</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>639633</v>
+        <v>639232</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>330056</v>
+        <v>330887</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>654257</v>
+        <v>655044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>774513</v>
+        <v>773373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>784385</v>
+        <v>783078</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>491954</v>
+        <v>492774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>998133</v>
+        <v>999333</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1420714</v>
+        <v>1419520</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1438901</v>
+        <v>1434004</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>835610</v>
+        <v>834406</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>360512</v>
+        <v>359957</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>677188</v>
+        <v>677229</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>681035</v>
+        <v>680187</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>369734</v>
+        <v>368966</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>684757</v>
+        <v>684660</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>820735</v>
+        <v>821678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>825130</v>
+        <v>825688</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>522279</v>
+        <v>524117</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1036936</v>
+        <v>1038264</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1485428</v>
+        <v>1486781</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1496861</v>
+        <v>1494578</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>883490</v>
+        <v>885008</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>723456</v>
+        <v>725009</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>694207</v>
+        <v>695705</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>645934</v>
+        <v>646596</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>800880</v>
+        <v>802223</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>772100</v>
+        <v>769538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>835696</v>
+        <v>836347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>757511</v>
+        <v>758269</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1000232</v>
+        <v>1001082</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1503346</v>
+        <v>1504775</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1543918</v>
+        <v>1543030</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1413954</v>
+        <v>1411200</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1813050</v>
+        <v>1816364</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>754307</v>
+        <v>753706</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>736410</v>
+        <v>738748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>673647</v>
+        <v>673438</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>844303</v>
+        <v>844443</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>801513</v>
+        <v>801579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>875977</v>
+        <v>874855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>790356</v>
+        <v>791010</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1028880</v>
+        <v>1029100</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1547139</v>
+        <v>1548563</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1604501</v>
+        <v>1604313</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1456766</v>
+        <v>1456208</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1865452</v>
+        <v>1866418</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>828372</v>
+        <v>826648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>690415</v>
+        <v>689089</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>648093</v>
+        <v>649108</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>949449</v>
+        <v>951820</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>763479</v>
+        <v>764331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>722273</v>
+        <v>722471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>597558</v>
+        <v>596629</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>997272</v>
+        <v>995558</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1598998</v>
+        <v>1601519</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1422249</v>
+        <v>1421184</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1255253</v>
+        <v>1255462</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1955861</v>
+        <v>1954637</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>855035</v>
+        <v>854838</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>723051</v>
+        <v>722684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>676455</v>
+        <v>676766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>986236</v>
+        <v>985185</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>790680</v>
+        <v>790903</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>754278</v>
+        <v>753264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>624510</v>
+        <v>625870</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1013583</v>
+        <v>1013632</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1639358</v>
+        <v>1641108</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1466950</v>
+        <v>1468818</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1294437</v>
+        <v>1293369</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1994636</v>
+        <v>1992357</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>308752</v>
+        <v>309638</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>404215</v>
+        <v>406183</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>397292</v>
+        <v>397516</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>897979</v>
+        <v>896621</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>256517</v>
+        <v>256169</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>381213</v>
+        <v>380911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>395388</v>
+        <v>394541</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>837889</v>
+        <v>837004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>571493</v>
+        <v>572856</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>794065</v>
+        <v>793950</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>799747</v>
+        <v>799087</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1741888</v>
+        <v>1744274</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>326794</v>
+        <v>327217</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>428981</v>
+        <v>428703</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>416757</v>
+        <v>415837</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>925302</v>
+        <v>925389</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>271540</v>
+        <v>270699</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>399409</v>
+        <v>399939</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>415534</v>
+        <v>415130</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>859312</v>
+        <v>859480</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>594392</v>
+        <v>594726</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>824621</v>
+        <v>824027</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>826550</v>
+        <v>827448</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1779130</v>
+        <v>1779165</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2221832</v>
+        <v>2223412</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2456681</v>
+        <v>2458434</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2362851</v>
+        <v>2362939</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3020294</v>
+        <v>3025721</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2474899</v>
+        <v>2475481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2751975</v>
+        <v>2748778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2565376</v>
+        <v>2566302</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3354984</v>
+        <v>3356776</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4717956</v>
+        <v>4714366</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5232390</v>
+        <v>5230525</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4948238</v>
+        <v>4943927</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6395718</v>
+        <v>6399202</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2273672</v>
+        <v>2275736</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2532767</v>
+        <v>2532672</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2425233</v>
+        <v>2420920</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3096065</v>
+        <v>3098196</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2528380</v>
+        <v>2529941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2826056</v>
+        <v>2821803</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2630046</v>
+        <v>2628171</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3404569</v>
+        <v>3405968</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4791273</v>
+        <v>4788043</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5338205</v>
+        <v>5337279</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5035358</v>
+        <v>5033601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6489270</v>
+        <v>6487366</v>
       </c>
     </row>
     <row r="24">
